--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3387789.352787577</v>
+        <v>3380616.498149294</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.138261948</v>
+        <v>2345916.138261947</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516669</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>214.8368342205793</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.64798224416051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>128.4696057297948</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.16441470501287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.8350691069752</v>
+        <v>159.8350691069748</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>326.3193368254294</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>14.77699516265575</v>
       </c>
       <c r="H5" t="n">
-        <v>334.0905432484386</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>64.30956218677449</v>
       </c>
       <c r="T5" t="n">
-        <v>220.7944124161532</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3035935196382</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.518707828811</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>50.85019043812824</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078355</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896018</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537394</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9228757021759</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>29.69457622128323</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>153.5226607471</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463136</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>219.9067257039628</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>15.81690474671933</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>355.5243821374032</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>200.2931783177761</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>130.7621952949255</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>173.9313784350749</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>85.42291167995863</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.1493426068214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274056</v>
+        <v>81.77913505274114</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.913828367536</v>
+        <v>5.107731335946075</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.58997482934245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.22762595891534</v>
+        <v>91.94988401775102</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>142.1464059703853</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>97.21207767235191</v>
       </c>
     </row>
     <row r="23">
@@ -2371,10 +2371,10 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385014</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784685</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>215.6663338550305</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>157.3129833303995</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>7.496242627249307</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>5.562624396428716</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560537</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>96.63931691217044</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>168.9256156946466</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>91.22809260292729</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,13 +3322,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>134.2569834509596</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>98.64931084454889</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>9.621991078756851</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>198.3698148006631</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>92.38459999757366</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>262.8128506523635</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>511.3234208422639</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="C2" t="n">
-        <v>511.3234208422639</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="D2" t="n">
-        <v>511.3234208422639</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="E2" t="n">
-        <v>511.3234208422639</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="F2" t="n">
-        <v>245.4223764466408</v>
+        <v>249.5608613485117</v>
       </c>
       <c r="G2" t="n">
-        <v>230.0585164427707</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="H2" t="n">
-        <v>230.0585164427707</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573684</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098027</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369335</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885148</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806668</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806668</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="U2" t="n">
-        <v>799.0911139693623</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="V2" t="n">
-        <v>799.0911139693623</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="W2" t="n">
-        <v>799.0911139693623</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="X2" t="n">
-        <v>799.0911139693623</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="Y2" t="n">
-        <v>777.224465237887</v>
+        <v>256.5063620977151</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>564.3439064552376</v>
+        <v>150.8266412310776</v>
       </c>
       <c r="C3" t="n">
-        <v>564.3439064552376</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D3" t="n">
-        <v>415.4094967939863</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E3" t="n">
-        <v>256.1720417885308</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F3" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G3" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L3" t="n">
-        <v>21.05936271613335</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M3" t="n">
-        <v>281.6689763282836</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N3" t="n">
-        <v>542.2785899404338</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O3" t="n">
-        <v>785.316696249021</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271197</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806668</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806668</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="U3" t="n">
-        <v>1052.968135806668</v>
+        <v>554.1940864828883</v>
       </c>
       <c r="V3" t="n">
-        <v>817.8160275749249</v>
+        <v>319.0419782511456</v>
       </c>
       <c r="W3" t="n">
-        <v>817.8160275749249</v>
+        <v>319.0419782511456</v>
       </c>
       <c r="X3" t="n">
-        <v>609.964527369392</v>
+        <v>319.0419782511456</v>
       </c>
       <c r="Y3" t="n">
-        <v>564.3439064552376</v>
+        <v>319.0419782511456</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N4" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>719.9440326440933</v>
+        <v>780.0915612479544</v>
       </c>
       <c r="C5" t="n">
-        <v>719.9440326440933</v>
+        <v>411.1290443075427</v>
       </c>
       <c r="D5" t="n">
-        <v>390.3285409012353</v>
+        <v>52.86334570079218</v>
       </c>
       <c r="E5" t="n">
-        <v>390.3285409012353</v>
+        <v>52.86334570079218</v>
       </c>
       <c r="F5" t="n">
-        <v>383.3830401520318</v>
+        <v>45.91784495158871</v>
       </c>
       <c r="G5" t="n">
-        <v>368.4567824119755</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="H5" t="n">
-        <v>30.99158721153246</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153246</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931853</v>
+        <v>63.33729848931819</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817375</v>
+        <v>232.5599391817368</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923842</v>
+        <v>494.7722161923831</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365712</v>
+        <v>803.1404427365694</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029485</v>
+        <v>1101.866392029483</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245517</v>
+        <v>1338.757197245514</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927387</v>
+        <v>1503.263635927384</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576623</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="R5" t="n">
-        <v>1549.579360576623</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="S5" t="n">
-        <v>1549.579360576623</v>
+        <v>1484.620206852605</v>
       </c>
       <c r="T5" t="n">
-        <v>1326.554701570408</v>
+        <v>1484.620206852605</v>
       </c>
       <c r="U5" t="n">
-        <v>1072.712687914207</v>
+        <v>1484.620206852605</v>
       </c>
       <c r="V5" t="n">
-        <v>1072.712687914207</v>
+        <v>1153.557319509034</v>
       </c>
       <c r="W5" t="n">
-        <v>719.9440326440933</v>
+        <v>1153.557319509034</v>
       </c>
       <c r="X5" t="n">
-        <v>719.9440326440933</v>
+        <v>780.0915612479544</v>
       </c>
       <c r="Y5" t="n">
-        <v>719.9440326440933</v>
+        <v>780.0915612479544</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.6041318686139</v>
+        <v>711.5148678578632</v>
       </c>
       <c r="C6" t="n">
-        <v>288.1511025874869</v>
+        <v>537.0618385767362</v>
       </c>
       <c r="D6" t="n">
-        <v>288.1511025874869</v>
+        <v>388.127428915485</v>
       </c>
       <c r="E6" t="n">
-        <v>288.1511025874869</v>
+        <v>228.8899739100295</v>
       </c>
       <c r="F6" t="n">
-        <v>141.6165446143719</v>
+        <v>82.35541593691445</v>
       </c>
       <c r="G6" t="n">
-        <v>141.6165446143719</v>
+        <v>82.35541593691445</v>
       </c>
       <c r="H6" t="n">
-        <v>30.99158721153246</v>
+        <v>82.35541593691445</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153246</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="J6" t="n">
-        <v>56.56309157527291</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="K6" t="n">
-        <v>226.8897086170052</v>
+        <v>201.3182042532644</v>
       </c>
       <c r="L6" t="n">
-        <v>517.3192611265179</v>
+        <v>491.7477567627767</v>
       </c>
       <c r="M6" t="n">
-        <v>900.840152869232</v>
+        <v>875.2686485054901</v>
       </c>
       <c r="N6" t="n">
-        <v>900.840152869232</v>
+        <v>1129.624726147441</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.814860114878</v>
+        <v>1444.63656525803</v>
       </c>
       <c r="P6" t="n">
-        <v>1444.636565258033</v>
+        <v>1444.63656525803</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576623</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697044</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="S6" t="n">
-        <v>1297.911733212597</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="T6" t="n">
-        <v>1096.870415481547</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="U6" t="n">
-        <v>868.6654905298544</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="V6" t="n">
-        <v>868.6654905298544</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="W6" t="n">
-        <v>838.6709690942148</v>
+        <v>1295.342003848418</v>
       </c>
       <c r="X6" t="n">
-        <v>630.819468888682</v>
+        <v>1087.490503642885</v>
       </c>
       <c r="Y6" t="n">
-        <v>630.819468888682</v>
+        <v>879.7302048779313</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.99158721153246</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="C7" t="n">
-        <v>30.99158721153246</v>
+        <v>181.1082266238681</v>
       </c>
       <c r="D7" t="n">
-        <v>30.99158721153246</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="E7" t="n">
-        <v>30.99158721153246</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="F7" t="n">
-        <v>30.99158721153246</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153246</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153246</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153246</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153246</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177064</v>
+        <v>36.06994770177042</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391544</v>
+        <v>98.09493531391503</v>
       </c>
       <c r="M7" t="n">
-        <v>173.880711300452</v>
+        <v>173.8807113004514</v>
       </c>
       <c r="N7" t="n">
-        <v>253.29908734542</v>
+        <v>253.2990873454192</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451051</v>
+        <v>310.6385163451041</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179098</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="Q7" t="n">
-        <v>269.0962644344438</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="R7" t="n">
-        <v>269.0962644344438</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="S7" t="n">
-        <v>46.96825867286512</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="T7" t="n">
-        <v>30.99158721153246</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="U7" t="n">
-        <v>30.99158721153246</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="V7" t="n">
-        <v>30.99158721153246</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="W7" t="n">
-        <v>30.99158721153246</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="X7" t="n">
-        <v>30.99158721153246</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.99158721153246</v>
+        <v>336.1816213179086</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1130.084661047914</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C8" t="n">
-        <v>761.1221441075027</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D8" t="n">
-        <v>761.1221441075027</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284806</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1520.223993023726</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1130.084661047914</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641987</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600564</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477206</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>400.6823320653275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>231.6825318036599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>231.6825318036599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,67 +5026,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.3743239205529</v>
+        <v>484.0375086983739</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>484.0375086983739</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>333.9208692860382</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>333.9208692860382</v>
       </c>
       <c r="F13" t="n">
         <v>247.6350999123426</v>
@@ -5193,22 +5193,22 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141521</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>1020.446367141521</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.0227887507926</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.7466045204285</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925217</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925217</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925217</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925217</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123424</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.210845262961</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570746</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>820.5263570570746</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X16" t="n">
-        <v>820.5263570570746</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.3950693506681</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="17">
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,19 +5530,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1414.847961508494</v>
+        <v>1406.037599832902</v>
       </c>
       <c r="S19" t="n">
-        <v>1214.927951424046</v>
+        <v>1206.117589748454</v>
       </c>
       <c r="T19" t="n">
-        <v>991.1425362135519</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="U19" t="n">
-        <v>991.1425362135519</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V19" t="n">
-        <v>736.4580480076652</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W19" t="n">
-        <v>447.0408779707047</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>447.0408779707047</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.0408779707047</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,25 +5764,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5828,22 +5828,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
         <v>2016.139981183168</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>649.6418670412198</v>
+        <v>991.0842369787849</v>
       </c>
       <c r="C22" t="n">
-        <v>649.6418670412198</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D22" t="n">
-        <v>506.0596387883054</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G22" t="n">
         <v>359.1696912903951</v>
@@ -5907,7 +5907,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.423997082767</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>870.43444618475</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y22" t="n">
-        <v>649.6418670412198</v>
+        <v>1172.732701809025</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6019,16 +6019,16 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>592.8217113586345</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4037.655901217363</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C25" t="n">
-        <v>3868.719718289456</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D25" t="n">
-        <v>3718.60307887712</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E25" t="n">
-        <v>3570.689985294727</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4219.304366047602</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4219.304366047602</v>
+        <v>1340.014267193862</v>
       </c>
       <c r="W25" t="n">
-        <v>4219.304366047602</v>
+        <v>1050.597097156902</v>
       </c>
       <c r="X25" t="n">
-        <v>4219.304366047602</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="Y25" t="n">
-        <v>4219.304366047602</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.835903981931</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>102.835903981931</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D28" t="n">
-        <v>102.835903981931</v>
+        <v>272.964375390212</v>
       </c>
       <c r="E28" t="n">
-        <v>102.835903981931</v>
+        <v>272.964375390212</v>
       </c>
       <c r="F28" t="n">
-        <v>102.835903981931</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>102.835903981931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.785188168811</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799402</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947123</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974671</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119732</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119732</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909238</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227958</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>620.242624916909</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>330.8254548799484</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>102.835903981931</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.835903981931</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>933.2366688293934</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>835.6211972009384</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>835.6211972009384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.6211972009384</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6703,19 +6703,19 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6727,25 +6727,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>619.9540936663864</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C34" t="n">
-        <v>451.0179107384795</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D34" t="n">
-        <v>300.9012713261437</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E34" t="n">
-        <v>300.9012713261437</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6894,16 +6894,16 @@
         <v>1164.055751909234</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3712637033469</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W34" t="n">
-        <v>619.9540936663864</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X34" t="n">
-        <v>619.9540936663864</v>
+        <v>936.0662010112164</v>
       </c>
       <c r="Y34" t="n">
-        <v>619.9540936663864</v>
+        <v>715.2736218676863</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,19 +6958,19 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465858</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L36" t="n">
-        <v>2790.374642318406</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>3558.742788710867</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>3888.6054163749</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>4558.069177677559</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>4763.091658459769</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3927.865363461246</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C37" t="n">
-        <v>3927.865363461246</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D37" t="n">
-        <v>3777.748724048911</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E37" t="n">
-        <v>3777.748724048911</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048911</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>1163.383145876526</v>
       </c>
       <c r="U37" t="n">
-        <v>4437.14914771935</v>
+        <v>1163.383145876526</v>
       </c>
       <c r="V37" t="n">
-        <v>4437.14914771935</v>
+        <v>1163.383145876526</v>
       </c>
       <c r="W37" t="n">
-        <v>4437.14914771935</v>
+        <v>1163.383145876526</v>
       </c>
       <c r="X37" t="n">
-        <v>4209.159596821333</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="Y37" t="n">
-        <v>4109.513828291486</v>
+        <v>714.6010158349783</v>
       </c>
     </row>
     <row r="38">
@@ -7171,52 +7171,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>275.872457296028</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>106.936274368121</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>106.936274368121</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W40" t="n">
-        <v>496.665036439558</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X40" t="n">
-        <v>496.665036439558</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y40" t="n">
-        <v>275.872457296028</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7435,10 +7435,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1564.731711769082</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N42" t="n">
-        <v>1894.594339433115</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>2174.134404651812</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U43" t="n">
-        <v>1094.603379259953</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V43" t="n">
-        <v>1094.603379259953</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>805.1862092229927</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>577.1966583249754</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>577.1966583249754</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
@@ -7639,61 +7639,61 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>261.8048459311029</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>410.8745301331628</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1024.771599890051</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.7466045204288</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1298.996260473455</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1033.528734561976</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>805.539183663959</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.7466045204288</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114201</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236087</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429919</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093849</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808121</v>
+        <v>197.5393732613981</v>
       </c>
       <c r="O3" t="n">
-        <v>376.3118568687447</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>100.2612329527924</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2546405184962</v>
+        <v>458.2546405184958</v>
       </c>
       <c r="N6" t="n">
-        <v>58.18106165674948</v>
+        <v>315.1063926082151</v>
       </c>
       <c r="O6" t="n">
-        <v>386.7541052717356</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>80.25902607109361</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.30006332127829</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.4753596397814</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>306.1147370139961</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>306.1147370139961</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>182.0340742867944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9956,13 +9956,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>253.7371603504737</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L36" t="n">
-        <v>18.73797368291258</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M39" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>158.8724419039332</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11375,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>124.3400780863227</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.99813634297261</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.43531074527337</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.80609703159</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>164.9946785227522</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.73672644487735</v>
+        <v>18.01446838604176</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6.469067047827082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>121.3725756797429</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>70.57101854354681</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>94.82465999342847</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>137.9248053956819</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>143.3512039711074</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>189.8836814244206</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>10.90636448729066</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>54.19295542000395</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>87.29057760742967</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>119.9353425075459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>136.8119715678123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>23.17774625772617</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>7.125262335200489</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>193.8527524010037</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>23.71014768422748</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="F2" t="n">
         <v>664749.4015541045</v>
       </c>
-      <c r="F2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="G2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.401554105</v>
       </c>
       <c r="I2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.401554105</v>
       </c>
-      <c r="K2" t="n">
-        <v>664749.4015541051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541051</v>
-      </c>
       <c r="M2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541053</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541052</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749499</v>
+        <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300994</v>
+        <v>138241.1818300988</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133495</v>
+        <v>300621.8974133504</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>9.701276818911232e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124997</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414849</v>
+        <v>31952.95942414839</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179872</v>
+        <v>72609.89266179891</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>279327.2236236408</v>
       </c>
       <c r="C4" t="n">
-        <v>239463.3485659244</v>
+        <v>239463.3485659246</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007607</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007524</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.73165600751</v>
+        <v>7916.731656007509</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007443</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007468</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007403</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007451</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267178</v>
+        <v>60032.17562267171</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258029.4184792167</v>
+        <v>258029.4184792174</v>
       </c>
       <c r="C6" t="n">
-        <v>260148.7983659451</v>
+        <v>260148.798365946</v>
       </c>
       <c r="D6" t="n">
-        <v>166487.4801919613</v>
+        <v>166487.4801919602</v>
       </c>
       <c r="E6" t="n">
-        <v>39685.30747248438</v>
+        <v>38710.71621276273</v>
       </c>
       <c r="F6" t="n">
-        <v>564845.3439493804</v>
+        <v>563870.7526896588</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.7526896591</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.7526896594</v>
       </c>
       <c r="I6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.7526896594</v>
       </c>
       <c r="J6" t="n">
-        <v>495969.6452181307</v>
+        <v>494995.0539584092</v>
       </c>
       <c r="K6" t="n">
-        <v>532892.3845252325</v>
+        <v>531917.7932655107</v>
       </c>
       <c r="L6" t="n">
-        <v>492235.4512875823</v>
+        <v>491260.8600278604</v>
       </c>
       <c r="M6" t="n">
-        <v>430044.3287155435</v>
+        <v>429069.7374558224</v>
       </c>
       <c r="N6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.7526896591</v>
       </c>
       <c r="O6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.7526896596</v>
       </c>
       <c r="P6" t="n">
-        <v>564845.3439493809</v>
+        <v>563870.7526896591</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>2.286804207044001e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792254</v>
+        <v>130.7784101792246</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441558</v>
+        <v>387.3948401441549</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924358</v>
+        <v>107.7650274924353</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378613</v>
+        <v>246.9652540378621</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924889</v>
+        <v>124.1528061924883</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326103999</v>
+        <v>286.8924326104007</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516671</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924889</v>
+        <v>124.1528061924885</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326103999</v>
+        <v>286.8924326104006</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924889</v>
+        <v>124.1528061924883</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326103999</v>
+        <v>286.8924326104007</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.4918077118137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900446</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>112.9154242495556</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>364.5899564118931</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>44.23889325852093</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27478,7 +27478,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>160.5182810722915</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27557,13 +27557,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598916</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.74958424511956</v>
+        <v>58.74958424511996</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>28.36370479525351</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.0905432484386</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264478</v>
+        <v>190.2072075264479</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.843954892222</v>
+        <v>116.8439548922222</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291233</v>
+        <v>132.7301535423489</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.7944124161532</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3035935196382</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>137.0622202054666</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.5187078288111</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663282</v>
+        <v>28.86143750850464</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.69274760078366</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.4582034896018</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.0309045537394</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9228757021759</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>222.0004069396364</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>13.72416035152779</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>148.3584260604898</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300333</v>
+        <v>76.68600477300343</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>66.41450331463146</v>
       </c>
       <c r="R7" t="n">
         <v>166.6896206108343</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>219.9067257039628</v>
       </c>
       <c r="T7" t="n">
-        <v>211.1210477506731</v>
+        <v>226.9379524973924</v>
       </c>
       <c r="U7" t="n">
         <v>286.3061659063093</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>26.40598793485862</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>206.5828674239354</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>4.20342649741275</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>38.21416051494398</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>5.519365296858341e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.796617681797508e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29811,13 +29811,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-4.359998432535117e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-8.876067186483639e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-8.876067186483639e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367679</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887802</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035003</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760445</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324509</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455499</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841739</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544934</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679593</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318454</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294142</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104788</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125458</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.67671015524656</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750316</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688227</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523081</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210614</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605604</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.919449770552396</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467892</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994849</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259059</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281358</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166742</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471434</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988743</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815848031</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150904</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>5.01918103713195</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750111</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792976</v>
+        <v>0.5257423524792946</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328608</v>
+        <v>5.384258867328578</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395814</v>
+        <v>20.26868204395803</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873983</v>
+        <v>44.62172498873957</v>
       </c>
       <c r="K5" t="n">
-        <v>66.8763987691885</v>
+        <v>66.87639876918813</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887682</v>
+        <v>82.96608628887635</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684978053</v>
+        <v>92.31575684978002</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876234</v>
+        <v>93.80952230876181</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129632</v>
+        <v>88.58167179129582</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446365</v>
+        <v>75.60240746446323</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629879</v>
+        <v>56.77425946629847</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892771</v>
+        <v>33.02516304892752</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712201</v>
+        <v>11.98035385712194</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978127</v>
+        <v>2.301437147978113</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0420593881983438</v>
+        <v>0.04205938819834356</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439942</v>
+        <v>0.2812969577439926</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685418</v>
+        <v>2.716736407685403</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782257</v>
+        <v>9.685004904782204</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387447</v>
+        <v>26.57639371387432</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272209</v>
+        <v>45.42328988272182</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945805</v>
+        <v>61.0772188294577</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767782</v>
+        <v>71.27423354767741</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658383</v>
+        <v>73.16065042658342</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709848</v>
+        <v>66.92770204709811</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323693</v>
+        <v>53.71538134323663</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430355</v>
+        <v>35.90730990430334</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185958</v>
+        <v>17.46508655185948</v>
       </c>
       <c r="S6" t="n">
-        <v>5.22496761423603</v>
+        <v>5.224967614236</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082152</v>
+        <v>1.133824141082145</v>
       </c>
       <c r="U6" t="n">
-        <v>0.018506378798947</v>
+        <v>0.01850637879894689</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953244</v>
+        <v>0.2358299199953231</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594795</v>
+        <v>2.096742379594783</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768486</v>
+        <v>7.092048866768446</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366943</v>
+        <v>16.67317534366934</v>
       </c>
       <c r="K7" t="n">
-        <v>27.3991488867295</v>
+        <v>27.39914888672935</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821397</v>
+        <v>35.06147737821377</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344889</v>
+        <v>36.96741191344869</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437544</v>
+        <v>36.08840948437524</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715732</v>
+        <v>33.33348723715714</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925268</v>
+        <v>28.52255686925252</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706303</v>
+        <v>19.74753993706292</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633522</v>
+        <v>10.60377076633516</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009425</v>
+        <v>4.109872333009402</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889113</v>
+        <v>1.007636930889108</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156317</v>
+        <v>0.01286345018156309</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P2" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516669</v>
+        <v>79.07191193225269</v>
       </c>
       <c r="O3" t="n">
-        <v>245.4930366753406</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>193.94078250313</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082925</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919058</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025438</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412731</v>
+        <v>32.67243563412705</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953727</v>
+        <v>170.9319602953723</v>
       </c>
       <c r="L5" t="n">
-        <v>264.86088586934</v>
+        <v>264.8608858693395</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153403</v>
+        <v>311.4830571153398</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241556</v>
+        <v>301.7433831241551</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323549</v>
+        <v>239.2836416323544</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806768</v>
+        <v>166.1681198806763</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175398</v>
+        <v>46.78356025175366</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.82980238761662</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.0470879209417</v>
+        <v>172.0470879209414</v>
       </c>
       <c r="L6" t="n">
-        <v>293.363184353043</v>
+        <v>293.3631843530427</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3948401441558</v>
+        <v>387.3948401441549</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>256.9253309514652</v>
       </c>
       <c r="O6" t="n">
-        <v>311.0855628743896</v>
+        <v>318.1937768793832</v>
       </c>
       <c r="P6" t="n">
-        <v>238.2037425688439</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.0028235541311</v>
+        <v>106.0028235541309</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.12965706084665</v>
+        <v>5.129657060846498</v>
       </c>
       <c r="L7" t="n">
-        <v>62.6515026385301</v>
+        <v>62.65150263852991</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528949</v>
+        <v>76.55128887528927</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360402</v>
+        <v>80.22058186360383</v>
       </c>
       <c r="O7" t="n">
-        <v>57.918615151197</v>
+        <v>57.91861515119681</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414617</v>
+        <v>25.80111613414601</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>418.4946367192911</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>588.4784392551043</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799286</v>
@@ -35816,16 +35816,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799286</v>
@@ -36053,16 +36053,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36214,7 +36214,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>588.4784392551043</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>332.6095128747336</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36694,7 +36694,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299144</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36913,7 +36913,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36922,13 +36922,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>457.5346514843356</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37150,10 +37150,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>536.1008625915819</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37387,28 +37387,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L36" t="n">
-        <v>267.9956786389369</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M39" t="n">
-        <v>724.9245949685502</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>365.9658568354579</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>166.2502570412294</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>
